--- a/data/trans_orig/PER_ESCASEZ_VERDE-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/PER_ESCASEZ_VERDE-Estudios-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de la escasez de zonas verdes en País Vasco</t>
+          <t>Percepción de la escasez de zonas verdes en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2608,7 +2608,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de la escasez de zonas verdes en Andalucia</t>
+          <t>Percepción de la escasez de zonas verdes en Andalucia (tasa de respuesta: 99,82%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4671,7 +4671,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de la escasez de zonas verdes en C.Valenciana</t>
+          <t>Percepción de la escasez de zonas verdes en C.Valenciana (tasa de respuesta: 93,69%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/PER_ESCASEZ_VERDE-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/PER_ESCASEZ_VERDE-Estudios-trans_orig.xlsx
@@ -735,32 +735,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>75341</t>
+          <t>67504</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>71874</t>
+          <t>64119</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>78492</t>
+          <t>70433</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>82,61%</t>
+          <t>81,6%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>78,81%</t>
+          <t>77,51%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>86,07%</t>
+          <t>85,14%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -770,32 +770,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>104014</t>
+          <t>96603</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>99517</t>
+          <t>92969</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>107907</t>
+          <t>99729</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>81,32%</t>
+          <t>81,94%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>77,8%</t>
+          <t>78,86%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>84,36%</t>
+          <t>84,59%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -805,32 +805,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>179355</t>
+          <t>164107</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>174121</t>
+          <t>159054</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>184494</t>
+          <t>168804</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>81,86%</t>
+          <t>81,8%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>79,47%</t>
+          <t>79,28%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>84,2%</t>
+          <t>84,14%</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9887</t>
+          <t>9253</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7390</t>
+          <t>6923</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12793</t>
+          <t>12007</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,84%</t>
+          <t>11,19%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>8,37%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>14,51%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -883,32 +883,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15457</t>
+          <t>14134</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>12251</t>
+          <t>11366</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>19060</t>
+          <t>17193</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>12,08%</t>
+          <t>11,99%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>9,64%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>14,9%</t>
+          <t>14,58%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -918,32 +918,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>25343</t>
+          <t>23388</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>21141</t>
+          <t>19789</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>29896</t>
+          <t>27705</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>11,66%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>9,65%</t>
+          <t>9,86%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>13,64%</t>
+          <t>13,81%</t>
         </is>
       </c>
     </row>
@@ -961,32 +961,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5969</t>
+          <t>5966</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4035</t>
+          <t>4184</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8292</t>
+          <t>8310</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>9,09%</t>
+          <t>10,05%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -996,32 +996,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>8441</t>
+          <t>7153</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>6195</t>
+          <t>5246</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>11154</t>
+          <t>9376</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>6,6%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>8,72%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1031,32 +1031,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>14410</t>
+          <t>13119</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>11600</t>
+          <t>10383</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>18680</t>
+          <t>16134</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>8,04%</t>
         </is>
       </c>
     </row>
@@ -1074,17 +1074,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>91197</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>91197</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>91197</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1109,17 +1109,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>127912</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>127912</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>127912</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>219109</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>219109</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>219109</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1191,32 +1191,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>389504</t>
+          <t>395936</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>382374</t>
+          <t>388590</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>396941</t>
+          <t>402353</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>84,03%</t>
+          <t>84,56%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>82,5%</t>
+          <t>82,99%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>85,64%</t>
+          <t>85,93%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1226,32 +1226,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>374165</t>
+          <t>381324</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>367446</t>
+          <t>374761</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>380769</t>
+          <t>388121</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>85,16%</t>
+          <t>84,94%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>83,63%</t>
+          <t>83,48%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>86,67%</t>
+          <t>86,46%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1261,32 +1261,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>763669</t>
+          <t>777258</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>754170</t>
+          <t>767639</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>774672</t>
+          <t>787782</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>84,58%</t>
+          <t>84,75%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>83,53%</t>
+          <t>83,7%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>85,8%</t>
+          <t>85,9%</t>
         </is>
       </c>
     </row>
@@ -1304,32 +1304,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>37588</t>
+          <t>39259</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>32202</t>
+          <t>34496</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>43230</t>
+          <t>45044</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>7,37%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,33%</t>
+          <t>9,62%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1339,32 +1339,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>31629</t>
+          <t>36121</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>26910</t>
+          <t>30755</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>36851</t>
+          <t>41265</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>8,39%</t>
+          <t>9,19%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1374,32 +1374,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>69217</t>
+          <t>75380</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>62060</t>
+          <t>66973</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>76775</t>
+          <t>83006</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>7,67%</t>
+          <t>8,22%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>9,05%</t>
         </is>
       </c>
     </row>
@@ -1417,32 +1417,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>36415</t>
+          <t>33021</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>31235</t>
+          <t>28664</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>41895</t>
+          <t>38399</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,86%</t>
+          <t>7,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1452,32 +1452,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>33556</t>
+          <t>31478</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>27991</t>
+          <t>27412</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>38955</t>
+          <t>36850</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>7,64%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>8,21%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1487,32 +1487,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>69971</t>
+          <t>64498</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>62457</t>
+          <t>57993</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>77589</t>
+          <t>71440</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>7,03%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>7,79%</t>
         </is>
       </c>
     </row>
@@ -1530,17 +1530,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>463507</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>463507</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>463507</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1565,17 +1565,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>439350</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>439350</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>439350</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1600,17 +1600,17 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>902857</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>902857</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>902857</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1647,32 +1647,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>134354</t>
+          <t>160501</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>130228</t>
+          <t>156012</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>138089</t>
+          <t>164580</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>86,54%</t>
+          <t>86,95%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>83,88%</t>
+          <t>84,52%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>88,94%</t>
+          <t>89,16%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1682,32 +1682,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>174286</t>
+          <t>206512</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>169919</t>
+          <t>201218</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>178075</t>
+          <t>211263</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>87,2%</t>
+          <t>85,53%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>85,01%</t>
+          <t>83,34%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>89,09%</t>
+          <t>87,5%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1717,32 +1717,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>308640</t>
+          <t>367013</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>303001</t>
+          <t>359545</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>314416</t>
+          <t>373336</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>86,91%</t>
+          <t>86,15%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>85,32%</t>
+          <t>84,39%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>88,54%</t>
+          <t>87,63%</t>
         </is>
       </c>
     </row>
@@ -1760,32 +1760,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10968</t>
+          <t>12118</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8345</t>
+          <t>9294</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14848</t>
+          <t>15709</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,56%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1795,32 +1795,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13467</t>
+          <t>18461</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>10487</t>
+          <t>14670</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>16915</t>
+          <t>22320</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>8,46%</t>
+          <t>9,24%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1830,32 +1830,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>24435</t>
+          <t>30579</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>20400</t>
+          <t>25616</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>29236</t>
+          <t>36195</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>7,18%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>8,23%</t>
+          <t>8,5%</t>
         </is>
       </c>
     </row>
@@ -1873,22 +1873,22 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>9933</t>
+          <t>11965</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>7664</t>
+          <t>9116</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>13236</t>
+          <t>15649</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1898,7 +1898,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1908,32 +1908,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>12123</t>
+          <t>16482</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>9495</t>
+          <t>13253</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>15063</t>
+          <t>20722</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>8,58%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1943,32 +1943,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>22056</t>
+          <t>28447</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>18416</t>
+          <t>24157</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>26462</t>
+          <t>34088</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>7,45%</t>
+          <t>8,0%</t>
         </is>
       </c>
     </row>
@@ -1986,17 +1986,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>155255</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>155255</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>155255</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2021,17 +2021,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>199876</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>199876</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>199876</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2056,17 +2056,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>355131</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>355131</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>355131</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2103,32 +2103,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>599199</t>
+          <t>623941</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>589172</t>
+          <t>615264</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>607694</t>
+          <t>633668</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>84,4%</t>
+          <t>84,83%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>82,99%</t>
+          <t>83,65%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>85,6%</t>
+          <t>86,15%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2138,32 +2138,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>652465</t>
+          <t>684438</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>643529</t>
+          <t>673791</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>661044</t>
+          <t>693265</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>85,05%</t>
+          <t>84,68%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>83,89%</t>
+          <t>83,36%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>86,17%</t>
+          <t>85,77%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2173,22 +2173,22 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>1251664</t>
+          <t>1308380</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>1238212</t>
+          <t>1294105</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>1264313</t>
+          <t>1320150</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>84,74%</t>
+          <t>84,75%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>85,59%</t>
+          <t>85,51%</t>
         </is>
       </c>
     </row>
@@ -2216,32 +2216,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>58443</t>
+          <t>60630</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>51342</t>
+          <t>53780</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>65747</t>
+          <t>68193</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,23%</t>
+          <t>8,24%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,23%</t>
+          <t>7,31%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,26%</t>
+          <t>9,27%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2251,32 +2251,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>60553</t>
+          <t>68717</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>54207</t>
+          <t>61380</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>67214</t>
+          <t>77173</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>7,89%</t>
+          <t>8,5%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>8,76%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2286,32 +2286,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>118996</t>
+          <t>129347</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>109465</t>
+          <t>119428</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>129002</t>
+          <t>140002</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>8,73%</t>
+          <t>9,07%</t>
         </is>
       </c>
     </row>
@@ -2329,32 +2329,32 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>52317</t>
+          <t>50951</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>46092</t>
+          <t>45133</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>58940</t>
+          <t>57260</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>8,3%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2364,32 +2364,32 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>54120</t>
+          <t>55113</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>48200</t>
+          <t>49141</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>61220</t>
+          <t>61566</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>7,62%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2399,32 +2399,32 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>106437</t>
+          <t>106064</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>97685</t>
+          <t>97641</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>115358</t>
+          <t>115893</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>7,51%</t>
         </is>
       </c>
     </row>
@@ -2442,17 +2442,17 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>709959</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>709959</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>709959</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2477,17 +2477,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>767138</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>767138</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>767138</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2512,17 +2512,17 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>1477097</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>1477097</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>1477097</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2803,12 +2803,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>28430</t>
+          <t>28802</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>51048</t>
+          <t>51202</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -2818,12 +2818,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,45%</t>
+          <t>12,62%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>22,36%</t>
+          <t>22,43%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -2838,12 +2838,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>32854</t>
+          <t>33091</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>51422</t>
+          <t>52499</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -2853,12 +2853,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>8,29%</t>
+          <t>8,35%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>12,98%</t>
+          <t>13,25%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -2873,12 +2873,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>66190</t>
+          <t>65715</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>97160</t>
+          <t>94805</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -2888,12 +2888,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>10,6%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>15,56%</t>
+          <t>15,18%</t>
         </is>
       </c>
     </row>
@@ -2916,12 +2916,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23465</t>
+          <t>23964</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>42416</t>
+          <t>42942</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -2931,12 +2931,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,28%</t>
+          <t>10,5%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,58%</t>
+          <t>18,81%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -2951,12 +2951,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>72978</t>
+          <t>71060</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>100056</t>
+          <t>98293</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -2966,12 +2966,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>18,42%</t>
+          <t>17,94%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>25,26%</t>
+          <t>24,81%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -2986,12 +2986,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>101333</t>
+          <t>101010</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>133390</t>
+          <t>134604</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -3001,12 +3001,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>16,23%</t>
+          <t>16,18%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>21,36%</t>
+          <t>21,56%</t>
         </is>
       </c>
     </row>
@@ -3029,12 +3029,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>145485</t>
+          <t>144122</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>172246</t>
+          <t>170532</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3044,12 +3044,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>63,73%</t>
+          <t>63,14%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>75,46%</t>
+          <t>74,7%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -3064,12 +3064,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>254985</t>
+          <t>255922</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>283608</t>
+          <t>284596</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -3079,12 +3079,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>64,37%</t>
+          <t>64,61%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>71,6%</t>
+          <t>71,85%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -3099,12 +3099,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>407322</t>
+          <t>406282</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>446921</t>
+          <t>446618</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -3114,12 +3114,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>65,23%</t>
+          <t>65,07%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>71,58%</t>
+          <t>71,53%</t>
         </is>
       </c>
     </row>
@@ -3259,12 +3259,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>57208</t>
+          <t>58168</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>136257</t>
+          <t>135720</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -3274,12 +3274,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>9,67%</t>
+          <t>9,63%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -3294,12 +3294,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>143419</t>
+          <t>143500</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>687621</t>
+          <t>756738</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -3309,12 +3309,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>10,34%</t>
+          <t>10,35%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>49,59%</t>
+          <t>54,58%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -3329,12 +3329,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>232596</t>
+          <t>231633</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>1076614</t>
+          <t>1062868</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -3344,12 +3344,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>8,32%</t>
+          <t>8,28%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>38,51%</t>
+          <t>38,02%</t>
         </is>
       </c>
     </row>
@@ -3372,12 +3372,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>113039</t>
+          <t>120456</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>263703</t>
+          <t>259358</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -3387,12 +3387,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,02%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,71%</t>
+          <t>18,4%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -3407,12 +3407,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>157820</t>
+          <t>158806</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>437047</t>
+          <t>455023</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -3422,12 +3422,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>11,38%</t>
+          <t>11,45%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>31,52%</t>
+          <t>32,82%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -3442,12 +3442,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>330428</t>
+          <t>329059</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>651103</t>
+          <t>640570</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -3457,12 +3457,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>11,82%</t>
+          <t>11,77%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>23,29%</t>
+          <t>22,91%</t>
         </is>
       </c>
     </row>
@@ -3485,12 +3485,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1021399</t>
+          <t>1024742</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1241322</t>
+          <t>1226438</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -3500,12 +3500,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>72,47%</t>
+          <t>72,71%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>88,07%</t>
+          <t>87,02%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -3520,12 +3520,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>530501</t>
+          <t>453298</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>997142</t>
+          <t>986536</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -3535,12 +3535,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>38,26%</t>
+          <t>32,69%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>71,92%</t>
+          <t>71,15%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -3555,12 +3555,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>1487074</t>
+          <t>1500331</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>2141273</t>
+          <t>2146606</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -3570,12 +3570,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>53,19%</t>
+          <t>53,66%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>76,59%</t>
+          <t>76,78%</t>
         </is>
       </c>
     </row>
@@ -3715,12 +3715,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>45025</t>
+          <t>43177</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>74415</t>
+          <t>74571</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -3730,12 +3730,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>9,39%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>16,18%</t>
+          <t>16,22%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -3750,12 +3750,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>58520</t>
+          <t>56577</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>85742</t>
+          <t>85240</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -3765,12 +3765,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>12,8%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>19,4%</t>
+          <t>19,28%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -3785,12 +3785,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>109745</t>
+          <t>107990</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>148364</t>
+          <t>151523</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -3800,12 +3800,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>12,17%</t>
+          <t>11,97%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>16,45%</t>
+          <t>16,8%</t>
         </is>
       </c>
     </row>
@@ -3828,12 +3828,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>74385</t>
+          <t>74240</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>111730</t>
+          <t>111412</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -3843,12 +3843,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,18%</t>
+          <t>16,15%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>24,3%</t>
+          <t>24,23%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -3863,12 +3863,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>73560</t>
+          <t>73276</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>104401</t>
+          <t>104484</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -3878,12 +3878,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>16,64%</t>
+          <t>16,58%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>23,62%</t>
+          <t>23,64%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -3898,12 +3898,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>156933</t>
+          <t>156324</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>203612</t>
+          <t>204165</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -3913,12 +3913,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>17,4%</t>
+          <t>17,33%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>22,58%</t>
+          <t>22,64%</t>
         </is>
       </c>
     </row>
@@ -3941,12 +3941,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>288360</t>
+          <t>287211</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>332088</t>
+          <t>331402</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>62,71%</t>
+          <t>62,46%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>72,22%</t>
+          <t>72,08%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -3976,12 +3976,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>266395</t>
+          <t>264850</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>301428</t>
+          <t>299783</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -3991,12 +3991,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>60,26%</t>
+          <t>59,91%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>68,19%</t>
+          <t>67,82%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -4011,12 +4011,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>568060</t>
+          <t>564296</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>622741</t>
+          <t>621143</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4026,12 +4026,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>62,99%</t>
+          <t>62,57%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>69,05%</t>
+          <t>68,87%</t>
         </is>
       </c>
     </row>
@@ -4171,12 +4171,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>122057</t>
+          <t>130803</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>238900</t>
+          <t>238729</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -4186,12 +4186,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>11,38%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -4206,12 +4206,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>257227</t>
+          <t>260309</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>962253</t>
+          <t>1011276</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -4221,12 +4221,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>11,56%</t>
+          <t>11,7%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>43,25%</t>
+          <t>45,46%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -4241,12 +4241,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>442780</t>
+          <t>437012</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>1445315</t>
+          <t>1313102</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -4256,12 +4256,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>10,24%</t>
+          <t>10,11%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>33,44%</t>
+          <t>30,38%</t>
         </is>
       </c>
     </row>
@@ -4284,12 +4284,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>226876</t>
+          <t>220732</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>388269</t>
+          <t>387368</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -4299,12 +4299,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>10,82%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18,51%</t>
+          <t>18,47%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -4319,12 +4319,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>322585</t>
+          <t>318817</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>617970</t>
+          <t>587766</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -4334,12 +4334,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>14,33%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>27,78%</t>
+          <t>26,42%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -4354,12 +4354,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>604214</t>
+          <t>624741</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>925952</t>
+          <t>937177</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -4369,12 +4369,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>13,98%</t>
+          <t>14,45%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>21,42%</t>
+          <t>21,68%</t>
         </is>
       </c>
     </row>
@@ -4397,12 +4397,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1485093</t>
+          <t>1484385</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1759620</t>
+          <t>1733471</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -4412,12 +4412,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>70,8%</t>
+          <t>70,77%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>83,89%</t>
+          <t>82,65%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -4432,12 +4432,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>949995</t>
+          <t>891542</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>1545744</t>
+          <t>1525445</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -4447,12 +4447,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>42,7%</t>
+          <t>40,08%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>69,48%</t>
+          <t>68,57%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -4467,12 +4467,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>2398747</t>
+          <t>2484650</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>3148249</t>
+          <t>3162141</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -4482,12 +4482,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>55,5%</t>
+          <t>57,49%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>72,84%</t>
+          <t>73,16%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/PER_ESCASEZ_VERDE-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/PER_ESCASEZ_VERDE-Estudios-trans_orig.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de la escasez de zonas verdes en País Vasco (tasa de respuesta: 100,0%)</t>
+          <t>Percepción de la escasez de zonas verdes en Andalucia (tasa de respuesta: 99,82%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -730,107 +730,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>199</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>67504</t>
+          <t>173537</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>64119</t>
+          <t>158840</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>70433</t>
+          <t>187445</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>81,6%</t>
+          <t>67,98%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>77,51%</t>
+          <t>62,22%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>85,14%</t>
+          <t>73,42%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>475</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>96603</t>
+          <t>290992</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>92969</t>
+          <t>275941</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>99729</t>
+          <t>308685</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>81,94%</t>
+          <t>67,37%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>78,86%</t>
+          <t>63,88%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>84,59%</t>
+          <t>71,46%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>1050</t>
+          <t>674</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>164107</t>
+          <t>464529</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>159054</t>
+          <t>442880</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>168804</t>
+          <t>486539</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>81,8%</t>
+          <t>67,59%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>79,28%</t>
+          <t>64,44%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>84,14%</t>
+          <t>70,8%</t>
         </is>
       </c>
     </row>
@@ -843,107 +843,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9253</t>
+          <t>37808</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6923</t>
+          <t>28751</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12007</t>
+          <t>50298</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,19%</t>
+          <t>14,81%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,37%</t>
+          <t>11,26%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>14,51%</t>
+          <t>19,7%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>147</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14134</t>
+          <t>95044</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>11366</t>
+          <t>79786</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>17193</t>
+          <t>110042</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>11,99%</t>
+          <t>22,0%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>18,47%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>14,58%</t>
+          <t>25,48%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>191</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>23388</t>
+          <t>132852</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>19789</t>
+          <t>113994</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>27705</t>
+          <t>151419</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>11,66%</t>
+          <t>19,33%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>16,59%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>13,81%</t>
+          <t>22,03%</t>
         </is>
       </c>
     </row>
@@ -956,107 +956,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5966</t>
+          <t>43949</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4184</t>
+          <t>33246</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8310</t>
+          <t>56347</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>17,22%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>13,02%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>10,05%</t>
+          <t>22,07%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>72</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>7153</t>
+          <t>45917</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>5246</t>
+          <t>36418</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>9376</t>
+          <t>57948</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>10,63%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>8,43%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>13,42%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>119</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>13119</t>
+          <t>89866</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>10383</t>
+          <t>74670</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>16134</t>
+          <t>105921</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>13,08%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>10,87%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>8,04%</t>
+          <t>15,41%</t>
         </is>
       </c>
     </row>
@@ -1069,22 +1069,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>290</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>82724</t>
+          <t>255294</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>82724</t>
+          <t>255294</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>82724</t>
+          <t>255294</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1104,22 +1104,22 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>694</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>117890</t>
+          <t>431953</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>117890</t>
+          <t>431953</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>117890</t>
+          <t>431953</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1139,22 +1139,22 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>1266</t>
+          <t>984</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>200614</t>
+          <t>687247</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>200614</t>
+          <t>687247</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>200614</t>
+          <t>687247</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1186,107 +1186,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>830</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>395936</t>
+          <t>950166</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>388590</t>
+          <t>911583</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>402353</t>
+          <t>983881</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>84,56%</t>
+          <t>73,79%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>82,99%</t>
+          <t>70,79%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>85,93%</t>
+          <t>76,41%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>1189</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>381324</t>
+          <t>906286</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>374761</t>
+          <t>871929</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>388121</t>
+          <t>933959</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>84,94%</t>
+          <t>71,28%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>83,48%</t>
+          <t>68,58%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>86,46%</t>
+          <t>73,46%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>4404</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>777258</t>
+          <t>1856452</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>767639</t>
+          <t>1808677</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>787782</t>
+          <t>1903254</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>84,75%</t>
+          <t>72,54%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>83,7%</t>
+          <t>70,68%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>85,9%</t>
+          <t>74,37%</t>
         </is>
       </c>
     </row>
@@ -1299,107 +1299,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>188</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>39259</t>
+          <t>223623</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>34496</t>
+          <t>195829</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>45044</t>
+          <t>259490</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>17,37%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>15,21%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>20,15%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>266</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>36121</t>
+          <t>214559</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>30755</t>
+          <t>193559</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>41265</t>
+          <t>244781</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>16,88%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>6,85%</t>
+          <t>15,22%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>9,19%</t>
+          <t>19,25%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>454</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>75380</t>
+          <t>438182</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>66973</t>
+          <t>402063</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>83006</t>
+          <t>478585</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>17,12%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>15,71%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>18,7%</t>
         </is>
       </c>
     </row>
@@ -1412,107 +1412,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>93</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>33021</t>
+          <t>113898</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>28664</t>
+          <t>92980</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>38399</t>
+          <t>142082</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>11,03%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>185</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>31478</t>
+          <t>150580</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>27412</t>
+          <t>129198</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>36850</t>
+          <t>175253</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>11,84%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>10,16%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>13,78%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>278</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>64498</t>
+          <t>264478</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>57993</t>
+          <t>232353</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>71440</t>
+          <t>301220</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>10,33%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>9,08%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>11,77%</t>
         </is>
       </c>
     </row>
@@ -1525,22 +1525,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2656</t>
+          <t>1111</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>468215</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>468215</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>468215</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1560,22 +1560,22 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2517</t>
+          <t>1640</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>448923</t>
+          <t>1271425</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>448923</t>
+          <t>1271425</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>448923</t>
+          <t>1271425</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1595,22 +1595,22 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>5173</t>
+          <t>2751</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>917137</t>
+          <t>2559112</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>917137</t>
+          <t>2559112</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>917137</t>
+          <t>2559112</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1642,107 +1642,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>792</t>
+          <t>328</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>160501</t>
+          <t>340580</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>156012</t>
+          <t>313622</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>164580</t>
+          <t>362433</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>86,95%</t>
+          <t>66,8%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>84,52%</t>
+          <t>61,51%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>89,16%</t>
+          <t>71,08%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1044</t>
+          <t>428</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>206512</t>
+          <t>315985</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>201218</t>
+          <t>297205</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>211263</t>
+          <t>333738</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>85,53%</t>
+          <t>64,0%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>83,34%</t>
+          <t>60,2%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>87,5%</t>
+          <t>67,6%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1836</t>
+          <t>756</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>367013</t>
+          <t>656566</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>359545</t>
+          <t>624435</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>373336</t>
+          <t>684887</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>86,15%</t>
+          <t>65,42%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>84,39%</t>
+          <t>62,22%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>87,63%</t>
+          <t>68,24%</t>
         </is>
       </c>
     </row>
@@ -1755,107 +1755,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>101</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12118</t>
+          <t>106311</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9294</t>
+          <t>86779</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>15709</t>
+          <t>127798</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>20,85%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>17,02%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>25,06%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>132</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>18461</t>
+          <t>100002</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>14670</t>
+          <t>84487</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>22320</t>
+          <t>118644</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>20,25%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>17,11%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>9,24%</t>
+          <t>24,03%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>233</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>30579</t>
+          <t>206313</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>25616</t>
+          <t>182312</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>36195</t>
+          <t>235129</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>7,18%</t>
+          <t>20,56%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>18,17%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>23,43%</t>
         </is>
       </c>
     </row>
@@ -1868,107 +1868,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>11965</t>
+          <t>62988</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>9116</t>
+          <t>47384</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>15649</t>
+          <t>80918</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>12,35%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>9,29%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>8,48%</t>
+          <t>15,87%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>103</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>16482</t>
+          <t>77742</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>13253</t>
+          <t>63005</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>20722</t>
+          <t>92889</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>15,75%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>12,76%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>18,81%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>161</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>28447</t>
+          <t>140730</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>24157</t>
+          <t>120084</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>34088</t>
+          <t>165460</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>14,02%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>11,97%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>16,49%</t>
         </is>
       </c>
     </row>
@@ -1981,22 +1981,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>487</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>184584</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>184584</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>184584</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2016,22 +2016,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1209</t>
+          <t>663</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>241455</t>
+          <t>493729</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>241455</t>
+          <t>493729</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>241455</t>
+          <t>493729</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2051,22 +2051,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>2122</t>
+          <t>1150</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>426039</t>
+          <t>1003609</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>426039</t>
+          <t>1003609</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>426039</t>
+          <t>1003609</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2098,107 +2098,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3473</t>
+          <t>1357</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>623941</t>
+          <t>1464283</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>615264</t>
+          <t>1420352</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>633668</t>
+          <t>1511454</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>84,83%</t>
+          <t>71,33%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>83,65%</t>
+          <t>69,19%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>86,15%</t>
+          <t>73,63%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>3817</t>
+          <t>2092</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>684438</t>
+          <t>1513263</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>673791</t>
+          <t>1472552</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>693265</t>
+          <t>1553619</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>84,68%</t>
+          <t>68,88%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>83,36%</t>
+          <t>67,02%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>85,77%</t>
+          <t>70,71%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>7290</t>
+          <t>3449</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>1308380</t>
+          <t>2977546</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>1294105</t>
+          <t>2909605</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>1320150</t>
+          <t>3033886</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>84,75%</t>
+          <t>70,06%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>83,83%</t>
+          <t>68,46%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>85,51%</t>
+          <t>71,39%</t>
         </is>
       </c>
     </row>
@@ -2211,107 +2211,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>333</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>60630</t>
+          <t>367742</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>53780</t>
+          <t>329369</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>68193</t>
+          <t>407483</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,24%</t>
+          <t>17,91%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>16,04%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,27%</t>
+          <t>19,85%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>545</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>68717</t>
+          <t>409605</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>61380</t>
+          <t>373779</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>77173</t>
+          <t>442741</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>18,64%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>17,01%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>9,55%</t>
+          <t>20,15%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>676</t>
+          <t>878</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>129347</t>
+          <t>777347</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>119428</t>
+          <t>727462</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>140002</t>
+          <t>827915</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>18,29%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>7,74%</t>
+          <t>17,12%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>19,48%</t>
         </is>
       </c>
     </row>
@@ -2324,107 +2324,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>198</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>50951</t>
+          <t>220835</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>45133</t>
+          <t>191944</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>57260</t>
+          <t>252420</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>10,76%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>9,35%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>12,3%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>360</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>55113</t>
+          <t>274240</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>49141</t>
+          <t>248019</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>61566</t>
+          <t>306599</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>12,48%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>11,29%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>13,95%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>558</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>106064</t>
+          <t>495074</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>97641</t>
+          <t>450995</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>115893</t>
+          <t>539992</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>11,65%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>10,61%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>12,71%</t>
         </is>
       </c>
     </row>
@@ -2437,22 +2437,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4077</t>
+          <t>1888</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>735523</t>
+          <t>2052860</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>735523</t>
+          <t>2052860</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>735523</t>
+          <t>2052860</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2472,22 +2472,22 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4484</t>
+          <t>2997</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>808268</t>
+          <t>2197108</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>808268</t>
+          <t>2197108</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>808268</t>
+          <t>2197108</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2507,22 +2507,22 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>8561</t>
+          <t>4885</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>1543791</t>
+          <t>4249968</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>1543791</t>
+          <t>4249968</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>1543791</t>
+          <t>4249968</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2608,7 +2608,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de la escasez de zonas verdes en Andalucia (tasa de respuesta: 99,82%)</t>
+          <t>Percepción de la escasez de zonas verdes en C.Valenciana (tasa de respuesta: 93,69%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2793,107 +2793,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>460</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>38432</t>
+          <t>176430</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>28802</t>
+          <t>166861</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>51202</t>
+          <t>183468</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>16,84%</t>
+          <t>83,76%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,62%</t>
+          <t>79,21%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>22,43%</t>
+          <t>87,1%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>498</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>41637</t>
+          <t>207221</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>33091</t>
+          <t>198639</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>52499</t>
+          <t>215109</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>10,51%</t>
+          <t>83,14%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>8,35%</t>
+          <t>79,7%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>13,25%</t>
+          <t>86,31%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>958</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>80069</t>
+          <t>383652</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>65715</t>
+          <t>370222</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>94805</t>
+          <t>394000</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>12,82%</t>
+          <t>83,42%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>10,52%</t>
+          <t>80,5%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>15,18%</t>
+          <t>85,67%</t>
         </is>
       </c>
     </row>
@@ -2906,107 +2906,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>32271</t>
+          <t>22329</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23964</t>
+          <t>16413</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>42942</t>
+          <t>31256</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,14%</t>
+          <t>10,6%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,5%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,81%</t>
+          <t>14,84%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>85157</t>
+          <t>30871</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>71060</t>
+          <t>23924</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>98293</t>
+          <t>39071</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>21,5%</t>
+          <t>12,39%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>17,94%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>24,81%</t>
+          <t>15,68%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>126</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>117427</t>
+          <t>53200</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>101010</t>
+          <t>44193</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>134604</t>
+          <t>64116</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>18,81%</t>
+          <t>11,57%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>16,18%</t>
+          <t>9,61%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>21,56%</t>
+          <t>13,94%</t>
         </is>
       </c>
     </row>
@@ -3019,107 +3019,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>157571</t>
+          <t>11890</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>144122</t>
+          <t>8277</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>170532</t>
+          <t>17999</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>69,03%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>63,14%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>74,7%</t>
+          <t>8,54%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>269328</t>
+          <t>11148</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>255922</t>
+          <t>7271</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>284596</t>
+          <t>16554</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>67,99%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>64,61%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>71,85%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>674</t>
+          <t>54</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>426899</t>
+          <t>23037</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>406282</t>
+          <t>17170</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>446618</t>
+          <t>30649</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>68,37%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>65,07%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>71,53%</t>
+          <t>6,66%</t>
         </is>
       </c>
     </row>
@@ -3132,22 +3132,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>545</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>228274</t>
+          <t>210649</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>228274</t>
+          <t>210649</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>228274</t>
+          <t>210649</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -3167,22 +3167,22 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>694</t>
+          <t>593</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>396122</t>
+          <t>249240</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>396122</t>
+          <t>249240</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>396122</t>
+          <t>249240</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -3202,22 +3202,22 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>984</t>
+          <t>1138</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>624396</t>
+          <t>459889</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>624396</t>
+          <t>459889</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>624396</t>
+          <t>459889</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -3249,107 +3249,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>1304</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>100898</t>
+          <t>672154</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>58168</t>
+          <t>655617</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>135720</t>
+          <t>687480</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>84,27%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>82,2%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>86,19%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>1141</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>336856</t>
+          <t>633503</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>143500</t>
+          <t>616604</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>756738</t>
+          <t>650021</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>24,3%</t>
+          <t>82,63%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>10,35%</t>
+          <t>80,43%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>54,58%</t>
+          <t>84,78%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>2445</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>437753</t>
+          <t>1305657</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>231633</t>
+          <t>1279453</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>1062868</t>
+          <t>1326638</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>15,66%</t>
+          <t>83,47%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>81,79%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>38,02%</t>
+          <t>84,81%</t>
         </is>
       </c>
     </row>
@@ -3362,107 +3362,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>166</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>204677</t>
+          <t>86279</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>120456</t>
+          <t>73586</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>259358</t>
+          <t>99981</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,52%</t>
+          <t>10,82%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,55%</t>
+          <t>9,23%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,4%</t>
+          <t>12,54%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>153</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>246827</t>
+          <t>87898</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>158806</t>
+          <t>73460</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>455023</t>
+          <t>102600</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,8%</t>
+          <t>11,46%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>11,45%</t>
+          <t>9,58%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>32,82%</t>
+          <t>13,38%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>319</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>451505</t>
+          <t>174177</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>329059</t>
+          <t>156325</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>640570</t>
+          <t>194815</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>16,15%</t>
+          <t>11,13%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>11,77%</t>
+          <t>9,99%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>22,91%</t>
+          <t>12,45%</t>
         </is>
       </c>
     </row>
@@ -3475,107 +3475,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>830</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1103818</t>
+          <t>39164</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1024742</t>
+          <t>29753</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1226438</t>
+          <t>50346</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>78,32%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>72,71%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>87,02%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1189</t>
+          <t>75</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>802806</t>
+          <t>45280</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>453298</t>
+          <t>35509</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>986536</t>
+          <t>57147</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>57,9%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>32,69%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>71,15%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>145</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>1906625</t>
+          <t>84443</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>1500331</t>
+          <t>71170</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>2146606</t>
+          <t>99932</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>68,19%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>53,66%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>76,78%</t>
+          <t>6,39%</t>
         </is>
       </c>
     </row>
@@ -3588,22 +3588,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1111</t>
+          <t>1540</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>797597</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>797597</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>797597</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -3623,22 +3623,22 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1640</t>
+          <t>1369</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1386489</t>
+          <t>766681</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1386489</t>
+          <t>766681</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1386489</t>
+          <t>766681</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -3658,22 +3658,22 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>2751</t>
+          <t>2909</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>2795883</t>
+          <t>1564278</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>2795883</t>
+          <t>1564278</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>2795883</t>
+          <t>1564278</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -3705,107 +3705,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>554</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>57125</t>
+          <t>317399</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>43177</t>
+          <t>305332</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>74571</t>
+          <t>328313</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>12,42%</t>
+          <t>85,66%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>82,41%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>16,22%</t>
+          <t>88,61%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>569</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>70555</t>
+          <t>336773</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>56577</t>
+          <t>324578</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>85240</t>
+          <t>348892</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>15,96%</t>
+          <t>83,12%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>12,8%</t>
+          <t>80,11%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>19,28%</t>
+          <t>86,11%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>1123</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>127680</t>
+          <t>654173</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>107990</t>
+          <t>639330</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>151523</t>
+          <t>671133</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>14,16%</t>
+          <t>84,33%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>11,97%</t>
+          <t>82,42%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>16,8%</t>
+          <t>86,52%</t>
         </is>
       </c>
     </row>
@@ -3818,107 +3818,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>92111</t>
+          <t>38366</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>74240</t>
+          <t>29558</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>111412</t>
+          <t>49602</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,03%</t>
+          <t>10,35%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,15%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>24,23%</t>
+          <t>13,39%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>75</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>87133</t>
+          <t>44613</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>73276</t>
+          <t>35807</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>104484</t>
+          <t>55389</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>19,71%</t>
+          <t>11,01%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>16,58%</t>
+          <t>8,84%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>23,64%</t>
+          <t>13,67%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>140</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>179244</t>
+          <t>82979</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>156324</t>
+          <t>69699</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>204165</t>
+          <t>96728</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>19,88%</t>
+          <t>10,7%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>17,33%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>22,64%</t>
+          <t>12,47%</t>
         </is>
       </c>
     </row>
@@ -3931,107 +3931,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>310565</t>
+          <t>14758</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>287211</t>
+          <t>9266</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>331402</t>
+          <t>22365</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>67,54%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>62,46%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>72,08%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>284364</t>
+          <t>23785</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>264850</t>
+          <t>16419</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>299783</t>
+          <t>32434</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>64,33%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>59,91%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>67,82%</t>
+          <t>8,0%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>756</t>
+          <t>61</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>594929</t>
+          <t>38543</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>564296</t>
+          <t>29128</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>621143</t>
+          <t>49938</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>65,97%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>62,57%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>68,87%</t>
+          <t>6,44%</t>
         </is>
       </c>
     </row>
@@ -4044,22 +4044,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>643</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>370523</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>370523</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>370523</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -4079,22 +4079,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>663</t>
+          <t>681</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>442052</t>
+          <t>405171</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>442052</t>
+          <t>405171</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>442052</t>
+          <t>405171</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -4114,22 +4114,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>1324</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>901853</t>
+          <t>775695</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>901853</t>
+          <t>775695</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>901853</t>
+          <t>775695</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -4161,107 +4161,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>2318</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>196455</t>
+          <t>1165984</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>130803</t>
+          <t>1142615</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>238729</t>
+          <t>1186680</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>9,37%</t>
+          <t>84,57%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>82,87%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>11,38%</t>
+          <t>86,07%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>2208</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>449048</t>
+          <t>1177498</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>260309</t>
+          <t>1154996</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>1011276</t>
+          <t>1200895</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>20,18%</t>
+          <t>82,86%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>11,7%</t>
+          <t>81,28%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>45,46%</t>
+          <t>84,51%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>4526</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>645503</t>
+          <t>2343482</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>437012</t>
+          <t>2310627</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>1313102</t>
+          <t>2373970</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>14,93%</t>
+          <t>83,7%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>10,11%</t>
+          <t>82,53%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>30,38%</t>
+          <t>84,79%</t>
         </is>
       </c>
     </row>
@@ -4274,107 +4274,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>287</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>329059</t>
+          <t>146974</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>220732</t>
+          <t>130770</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>387368</t>
+          <t>167484</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>15,69%</t>
+          <t>10,66%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>10,52%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18,47%</t>
+          <t>12,15%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>298</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>419117</t>
+          <t>163382</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>318817</t>
+          <t>143691</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>587766</t>
+          <t>182553</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>18,84%</t>
+          <t>11,5%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>14,33%</t>
+          <t>10,11%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>26,42%</t>
+          <t>12,85%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>878</t>
+          <t>585</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>748176</t>
+          <t>310356</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>624741</t>
+          <t>285161</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>937177</t>
+          <t>337005</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>17,31%</t>
+          <t>11,08%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>14,45%</t>
+          <t>10,18%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>21,68%</t>
+          <t>12,04%</t>
         </is>
       </c>
     </row>
@@ -4387,107 +4387,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>1357</t>
+          <t>123</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1571954</t>
+          <t>65811</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1484385</t>
+          <t>54892</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1733471</t>
+          <t>79519</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>74,95%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>70,77%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>82,65%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>2092</t>
+          <t>137</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>1356498</t>
+          <t>80213</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>891542</t>
+          <t>68238</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>1525445</t>
+          <t>94873</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>60,98%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>40,08%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>68,57%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>3449</t>
+          <t>260</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>2928453</t>
+          <t>146024</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>2484650</t>
+          <t>128004</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>3162141</t>
+          <t>165356</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>67,75%</t>
+          <t>5,22%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>57,49%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>73,16%</t>
+          <t>5,91%</t>
         </is>
       </c>
     </row>
@@ -4500,22 +4500,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1888</t>
+          <t>2728</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2097468</t>
+          <t>1378769</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2097468</t>
+          <t>1378769</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2097468</t>
+          <t>1378769</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -4535,22 +4535,22 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2997</t>
+          <t>2643</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>2224663</t>
+          <t>1421093</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>2224663</t>
+          <t>1421093</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>2224663</t>
+          <t>1421093</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -4570,22 +4570,22 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>4885</t>
+          <t>5371</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>4322131</t>
+          <t>2799862</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>4322131</t>
+          <t>2799862</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>4322131</t>
+          <t>2799862</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -4671,7 +4671,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de la escasez de zonas verdes en C.Valenciana (tasa de respuesta: 93,69%)</t>
+          <t>Percepción de la escasez de zonas verdes en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4856,107 +4856,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>425</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>176430</t>
+          <t>67504</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>166861</t>
+          <t>64119</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>183468</t>
+          <t>70433</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>83,76%</t>
+          <t>81,6%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>79,21%</t>
+          <t>77,51%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>87,1%</t>
+          <t>85,14%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>625</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>207221</t>
+          <t>96603</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>198639</t>
+          <t>92969</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>215109</t>
+          <t>99729</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>83,14%</t>
+          <t>81,94%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>79,7%</t>
+          <t>78,86%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>86,31%</t>
+          <t>84,59%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>958</t>
+          <t>1050</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>383652</t>
+          <t>164107</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>370222</t>
+          <t>159054</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>394000</t>
+          <t>168804</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>83,42%</t>
+          <t>81,8%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>80,5%</t>
+          <t>79,28%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>85,67%</t>
+          <t>84,14%</t>
         </is>
       </c>
     </row>
@@ -4969,107 +4969,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>22329</t>
+          <t>9253</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16413</t>
+          <t>6923</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>31256</t>
+          <t>12007</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,6%</t>
+          <t>11,19%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>8,37%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>14,84%</t>
+          <t>14,51%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>83</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>30871</t>
+          <t>14134</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>23924</t>
+          <t>11366</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>39071</t>
+          <t>17193</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>12,39%</t>
+          <t>11,99%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>9,64%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>15,68%</t>
+          <t>14,58%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>131</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>53200</t>
+          <t>23388</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>44193</t>
+          <t>19789</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>64116</t>
+          <t>27705</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>11,66%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>9,61%</t>
+          <t>9,86%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>13,94%</t>
+          <t>13,81%</t>
         </is>
       </c>
     </row>
@@ -5082,107 +5082,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11890</t>
+          <t>5966</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8277</t>
+          <t>4184</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17999</t>
+          <t>8310</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>10,05%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>11148</t>
+          <t>7153</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>7271</t>
+          <t>5246</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>16554</t>
+          <t>9376</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>85</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>23037</t>
+          <t>13119</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>17170</t>
+          <t>10383</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>30649</t>
+          <t>16134</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>8,04%</t>
         </is>
       </c>
     </row>
@@ -5195,22 +5195,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>508</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>210649</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>210649</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>210649</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -5230,22 +5230,22 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>593</t>
+          <t>758</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>249240</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>249240</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>249240</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -5265,22 +5265,22 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>1138</t>
+          <t>1266</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>459889</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>459889</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>459889</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -5312,107 +5312,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1304</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>672154</t>
+          <t>395936</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>655617</t>
+          <t>388590</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>687480</t>
+          <t>402353</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>84,27%</t>
+          <t>84,56%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>82,2%</t>
+          <t>82,99%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>86,19%</t>
+          <t>85,93%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1141</t>
+          <t>2148</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>633503</t>
+          <t>381324</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>616604</t>
+          <t>374761</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>650021</t>
+          <t>388121</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>82,63%</t>
+          <t>84,94%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>80,43%</t>
+          <t>83,48%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>84,78%</t>
+          <t>86,46%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>2445</t>
+          <t>4404</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>1305657</t>
+          <t>777258</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>1279453</t>
+          <t>767639</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>1326638</t>
+          <t>787782</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>83,47%</t>
+          <t>84,75%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>81,79%</t>
+          <t>83,7%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>84,81%</t>
+          <t>85,9%</t>
         </is>
       </c>
     </row>
@@ -5425,107 +5425,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>209</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>86279</t>
+          <t>39259</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>73586</t>
+          <t>34496</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>99981</t>
+          <t>45044</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,82%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,23%</t>
+          <t>7,37%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,54%</t>
+          <t>9,62%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>189</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>87898</t>
+          <t>36121</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>73460</t>
+          <t>30755</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>102600</t>
+          <t>41265</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,46%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>13,38%</t>
+          <t>9,19%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>398</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>174177</t>
+          <t>75380</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>156325</t>
+          <t>66973</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>194815</t>
+          <t>83006</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>11,13%</t>
+          <t>8,22%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>9,99%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>12,45%</t>
+          <t>9,05%</t>
         </is>
       </c>
     </row>
@@ -5538,107 +5538,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>191</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>39164</t>
+          <t>33021</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>29753</t>
+          <t>28664</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>50346</t>
+          <t>38399</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>7,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>180</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>45280</t>
+          <t>31478</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>35509</t>
+          <t>27412</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>57147</t>
+          <t>36850</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>7,45%</t>
+          <t>8,21%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>371</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>84443</t>
+          <t>64498</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>71170</t>
+          <t>57993</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>99932</t>
+          <t>71440</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>7,03%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>7,79%</t>
         </is>
       </c>
     </row>
@@ -5651,22 +5651,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1540</t>
+          <t>2656</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>797597</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>797597</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>797597</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -5686,22 +5686,22 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1369</t>
+          <t>2517</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>766681</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>766681</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>766681</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -5721,22 +5721,22 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>2909</t>
+          <t>5173</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>1564278</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>1564278</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>1564278</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -5768,107 +5768,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>792</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>317399</t>
+          <t>160501</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>305332</t>
+          <t>156012</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>328313</t>
+          <t>164580</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>85,66%</t>
+          <t>86,95%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>82,41%</t>
+          <t>84,52%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>88,61%</t>
+          <t>89,16%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>569</t>
+          <t>1044</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>336773</t>
+          <t>206512</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>324578</t>
+          <t>201218</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>348892</t>
+          <t>211263</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>83,12%</t>
+          <t>85,53%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>80,11%</t>
+          <t>83,34%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>86,11%</t>
+          <t>87,5%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1123</t>
+          <t>1836</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>654173</t>
+          <t>367013</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>639330</t>
+          <t>359545</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>671133</t>
+          <t>373336</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>84,33%</t>
+          <t>86,15%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>82,42%</t>
+          <t>84,39%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>86,52%</t>
+          <t>87,63%</t>
         </is>
       </c>
     </row>
@@ -5881,107 +5881,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>38366</t>
+          <t>12118</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>29558</t>
+          <t>9294</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>49602</t>
+          <t>15709</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,35%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,39%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>87</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>44613</t>
+          <t>18461</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>35807</t>
+          <t>14670</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>55389</t>
+          <t>22320</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>11,01%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>13,67%</t>
+          <t>9,24%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>147</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>82979</t>
+          <t>30579</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>69699</t>
+          <t>25616</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>96728</t>
+          <t>36195</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>10,7%</t>
+          <t>7,18%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>8,99%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>12,47%</t>
+          <t>8,5%</t>
         </is>
       </c>
     </row>
@@ -5994,107 +5994,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>61</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>14758</t>
+          <t>11965</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>9266</t>
+          <t>9116</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>22365</t>
+          <t>15649</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>78</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>23785</t>
+          <t>16482</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>16419</t>
+          <t>13253</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>32434</t>
+          <t>20722</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
+          <t>8,58%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>28447</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>24157</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>34088</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>6,68%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>5,67%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
           <t>8,0%</t>
-        </is>
-      </c>
-      <c r="Q14" s="2" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>38543</t>
-        </is>
-      </c>
-      <c r="S14" s="2" t="inlineStr">
-        <is>
-          <t>29128</t>
-        </is>
-      </c>
-      <c r="T14" s="2" t="inlineStr">
-        <is>
-          <t>49938</t>
-        </is>
-      </c>
-      <c r="U14" s="2" t="inlineStr">
-        <is>
-          <t>4,97%</t>
-        </is>
-      </c>
-      <c r="V14" s="2" t="inlineStr">
-        <is>
-          <t>3,76%</t>
-        </is>
-      </c>
-      <c r="W14" s="2" t="inlineStr">
-        <is>
-          <t>6,44%</t>
         </is>
       </c>
     </row>
@@ -6107,22 +6107,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>643</t>
+          <t>913</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>370523</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>370523</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>370523</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -6142,22 +6142,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>1209</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>405171</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>405171</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>405171</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -6177,22 +6177,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1324</t>
+          <t>2122</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>775695</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>775695</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>775695</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -6224,107 +6224,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2318</t>
+          <t>3473</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1165984</t>
+          <t>623941</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1142615</t>
+          <t>615264</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1186680</t>
+          <t>633668</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>84,57%</t>
+          <t>84,83%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>82,87%</t>
+          <t>83,65%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>86,07%</t>
+          <t>86,15%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2208</t>
+          <t>3817</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1177498</t>
+          <t>684438</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>1154996</t>
+          <t>673791</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>1200895</t>
+          <t>693265</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>82,86%</t>
+          <t>84,68%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>81,28%</t>
+          <t>83,36%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>84,51%</t>
+          <t>85,77%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>4526</t>
+          <t>7290</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>2343482</t>
+          <t>1308380</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>2310627</t>
+          <t>1294105</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>2373970</t>
+          <t>1320150</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>83,7%</t>
+          <t>84,75%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>82,53%</t>
+          <t>83,83%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>84,79%</t>
+          <t>85,51%</t>
         </is>
       </c>
     </row>
@@ -6337,107 +6337,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>317</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>146974</t>
+          <t>60630</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>130770</t>
+          <t>53780</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>167484</t>
+          <t>68193</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>8,24%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,48%</t>
+          <t>7,31%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>12,15%</t>
+          <t>9,27%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>359</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>163382</t>
+          <t>68717</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>143691</t>
+          <t>61380</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>182553</t>
+          <t>77173</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>8,5%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>10,11%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>12,85%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>676</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>310356</t>
+          <t>129347</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>285161</t>
+          <t>119428</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>337005</t>
+          <t>140002</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>11,08%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>10,18%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>12,04%</t>
+          <t>9,07%</t>
         </is>
       </c>
     </row>
@@ -6450,107 +6450,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>287</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>65811</t>
+          <t>50951</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>54892</t>
+          <t>45133</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>79519</t>
+          <t>57260</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>308</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>80213</t>
+          <t>55113</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>68238</t>
+          <t>49141</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>94873</t>
+          <t>61566</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>7,62%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>595</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>146024</t>
+          <t>106064</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>128004</t>
+          <t>97641</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>165356</t>
+          <t>115893</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>7,51%</t>
         </is>
       </c>
     </row>
@@ -6563,22 +6563,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2728</t>
+          <t>4077</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1378769</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1378769</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1378769</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -6598,22 +6598,22 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2643</t>
+          <t>4484</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1421093</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>1421093</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>1421093</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -6633,22 +6633,22 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>5371</t>
+          <t>8561</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>2799862</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>2799862</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>2799862</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
